--- a/Employee_Reports35/Thuvarakan Pulenthiran Q0484.xlsx
+++ b/Employee_Reports35/Thuvarakan Pulenthiran Q0484.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="52" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="2" max="2"/>
     <col width="35" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
@@ -469,7 +469,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -783,62 +783,25 @@
       <c r="K7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>Endangered by Electricity A safety Training (SOPs)</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr"/>
-      <c r="D8" s="4" t="inlineStr"/>
-      <c r="E8" s="4" t="inlineStr"/>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>29-Jul-2024</t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>29-Jul-2025</t>
-        </is>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>-97</v>
-      </c>
-      <c r="I8" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J8" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K8" s="4" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr"/>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr"/>
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>YOU ARE LISTED AS ; CAMP BOSS</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>&amp; THIS IS YOUR TRAINING DASHBOARD</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr"/>
-      <c r="E9" s="3" t="inlineStr"/>
-      <c r="F9" s="3" t="inlineStr"/>
-      <c r="G9" s="3" t="inlineStr"/>
-      <c r="H9" s="3" t="inlineStr"/>
-      <c r="I9" s="3" t="inlineStr"/>
-      <c r="J9" s="3" t="inlineStr"/>
-      <c r="K9" s="3" t="inlineStr"/>
+      <c r="D8" s="3" t="inlineStr"/>
+      <c r="E8" s="3" t="inlineStr"/>
+      <c r="F8" s="3" t="inlineStr"/>
+      <c r="G8" s="3" t="inlineStr"/>
+      <c r="H8" s="3" t="inlineStr"/>
+      <c r="I8" s="3" t="inlineStr"/>
+      <c r="J8" s="3" t="inlineStr"/>
+      <c r="K8" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Thuvarakan Pulenthiran Q0484.xlsx
+++ b/Employee_Reports35/Thuvarakan Pulenthiran Q0484.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
